--- a/レジシステム設計書/DB定義書.xlsx
+++ b/レジシステム設計書/DB定義書.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t xml:space="preserve">テーブル情報</t>
   </si>
@@ -77,28 +77,50 @@
     <t xml:space="preserve">barcode_mst</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">備考 </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">DBUSER:addline PASSWORD:addline</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">カラム情報</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">論理名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物理名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">データ型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">デフォルト</t>
+  </si>
+  <si>
     <t xml:space="preserve">備考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">カラム情報</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">論理名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">物理名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">データ型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">デフォルト</t>
   </si>
   <si>
     <t xml:space="preserve">インデックス番号</t>
@@ -185,7 +207,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
@@ -203,7 +225,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Segoe UI"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <charset val="128"/>
       </rPr>
@@ -260,15 +282,9 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Segoe UI"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -283,6 +299,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -430,111 +453,111 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -618,10 +641,10 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -725,7 +748,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="11"/>
@@ -752,13 +775,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -769,13 +792,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -786,13 +809,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21" t="n">
@@ -808,7 +831,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,16 +839,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,13 +856,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" s="23"/>
     </row>
@@ -851,7 +874,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,13 +882,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,13 +896,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -890,7 +913,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -918,7 +941,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,16 +949,16 @@
         <v>17</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
